--- a/SurgeonShift.xlsx
+++ b/SurgeonShift.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayakrak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\עומר קידר\CI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861AED35-BDAE-4C84-B0C1-66ACF1095708}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB44D92C-19C8-4909-B610-2E1CA835C374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{C6862D4B-AF61-4839-83CA-BDC2D41A57C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6862D4B-AF61-4839-83CA-BDC2D41A57C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D75C2C-93C5-4C6D-9DA2-9CB49C659AAB}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -475,299 +475,96 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B5" s="2">
-        <v>43954</v>
+        <v>43961</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B6" s="2">
-        <v>43954</v>
+        <v>43961</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B7" s="2">
-        <v>43954</v>
+        <v>43961</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>208</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43954</v>
-      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>209</v>
-      </c>
-      <c r="B9" s="2">
-        <v>43954</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>211</v>
-      </c>
-      <c r="B10" s="2">
-        <v>43954</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>213</v>
-      </c>
-      <c r="B11" s="2">
-        <v>43954</v>
-      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>214</v>
-      </c>
-      <c r="B12" s="2">
-        <v>43954</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>215</v>
-      </c>
-      <c r="B13" s="2">
-        <v>43954</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>216</v>
-      </c>
-      <c r="B14" s="2">
-        <v>43954</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>219</v>
-      </c>
-      <c r="B15" s="2">
-        <v>43954</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>200</v>
-      </c>
-      <c r="B16" s="2">
-        <v>43961</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>202</v>
-      </c>
-      <c r="B17" s="2">
-        <v>43961</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>205</v>
-      </c>
-      <c r="B18" s="2">
-        <v>43961</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>206</v>
-      </c>
-      <c r="B19" s="2">
-        <v>43961</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>207</v>
-      </c>
-      <c r="B20" s="2">
-        <v>43961</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>208</v>
-      </c>
-      <c r="B21" s="2">
-        <v>43961</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>209</v>
-      </c>
-      <c r="B22" s="2">
-        <v>43961</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>210</v>
-      </c>
-      <c r="B23" s="2">
-        <v>43961</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>213</v>
-      </c>
-      <c r="B24" s="2">
-        <v>43961</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>214</v>
-      </c>
-      <c r="B25" s="2">
-        <v>43961</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>215</v>
-      </c>
-      <c r="B26" s="2">
-        <v>43961</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>217</v>
-      </c>
-      <c r="B27" s="2">
-        <v>43961</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>218</v>
-      </c>
-      <c r="B28" s="2">
-        <v>43961</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>202</v>
-      </c>
-      <c r="B29" s="2">
-        <v>43968</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>203</v>
-      </c>
-      <c r="B30" s="2">
-        <v>43968</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>204</v>
-      </c>
-      <c r="B31" s="2">
-        <v>43968</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>205</v>
-      </c>
-      <c r="B32" s="2">
-        <v>43968</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>206</v>
-      </c>
-      <c r="B33" s="2">
-        <v>43968</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>207</v>
-      </c>
-      <c r="B34" s="2">
-        <v>43968</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>209</v>
-      </c>
-      <c r="B35" s="2">
-        <v>43968</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>210</v>
-      </c>
-      <c r="B36" s="2">
-        <v>43968</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>212</v>
-      </c>
-      <c r="B37" s="2">
-        <v>43968</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>214</v>
-      </c>
-      <c r="B38" s="2">
-        <v>43968</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>215</v>
-      </c>
-      <c r="B39" s="2">
-        <v>43968</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>218</v>
-      </c>
-      <c r="B40" s="2">
-        <v>43968</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>219</v>
-      </c>
-      <c r="B41" s="2">
-        <v>43968</v>
-      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
